--- a/messages.xlsx
+++ b/messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,62 @@
       </c>
       <c r="F8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tahmina</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Abbasova</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tahmina@gmail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>d;bmfd;lbmlfdmtbkimtrjbijrtoibmjeoijaboe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-11-16 14:01:05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tahmina</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abbasova</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tahmina@gmail.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>trjsgbhosrjgtbhojsrthjsrot g</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-11-16 14:16:55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
